--- a/biology/Zoologie/Globicetus/Globicetus.xlsx
+++ b/biology/Zoologie/Globicetus/Globicetus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Globicetus hiberus
-Globicetus est un genre éteint de cétacés de la famille des Ziphiidae qui a vécu lors du Miocène. Ses restes fossiles ont été mis au jour en Espagne et au Portugal. Une seule espèce est connue, Globicetus hiberus[1].
+Globicetus est un genre éteint de cétacés de la famille des Ziphiidae qui a vécu lors du Miocène. Ses restes fossiles ont été mis au jour en Espagne et au Portugal. Une seule espèce est connue, Globicetus hiberus.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Globicetus est composé des termes latin globus, « rond », qui fait référence à la proéminence arrondie du rostre, et cetus, « baleine »[1].
-Le nom spécifique, hiberus, fait référence à la péninsule Ibérique, lieu de la découverte des restes fossiles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Globicetus est composé des termes latin globus, « rond », qui fait référence à la proéminence arrondie du rostre, et cetus, « baleine ».
+Le nom spécifique, hiberus, fait référence à la péninsule Ibérique, lieu de la découverte des restes fossiles.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,7 +586,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Giovanni Bianucci, Ismael Miján, Olivier Lambert, Klaas Post et Octávio Mateus, « Bizarre fossil beaked whales (Odontoceti, Ziphiidae) fished from the Atlantic Ocean floor off the Iberian Peninsula », Geodiversitas, Paris, Muséum national d'histoire naturelle, vol. 35, no 1,‎ mars 2013, p. 105-153 (ISSN 1280-9659 et 1638-9395, OCLC 260004075, BNF 34547454, DOI 10.5252/G2013N1A6, lire en ligne)</t>
         </is>
